--- a/December2020/BELSAR.xlsx
+++ b/December2020/BELSAR.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7830"/>
+    <workbookView windowWidth="20490" windowHeight="7830" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NISHA GENERAL STORE-(661644683)" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="15">
   <si>
     <t>NISHA GENERAL STORE-(661644683)</t>
   </si>
@@ -30,10 +30,10 @@
     <t>Receive Amount</t>
   </si>
   <si>
-    <t>Dues Amount</t>
+    <t>Transaction Type</t>
   </si>
   <si>
-    <t>Transaction Type</t>
+    <t>Dues Amount</t>
   </si>
   <si>
     <t>Remarks</t>
@@ -68,11 +68,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -89,15 +89,29 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -105,10 +119,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -120,47 +134,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,24 +195,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,35 +220,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,73 +260,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -338,103 +398,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,26 +451,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -504,17 +484,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -543,6 +517,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -556,10 +556,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -574,130 +574,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -717,7 +717,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -729,7 +729,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1053,16 +1053,17 @@
   <sheetPr/>
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D$1:D$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="17" style="6" customWidth="1"/>
     <col min="2" max="2" width="18" style="6" customWidth="1"/>
-    <col min="3" max="4" width="16.8571428571429" style="6" customWidth="1"/>
-    <col min="5" max="5" width="17.2857142857143" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.8571428571429" style="6" customWidth="1"/>
+    <col min="4" max="4" width="17.2857142857143" style="6" customWidth="1"/>
+    <col min="5" max="5" width="16.8571428571429" style="6" customWidth="1"/>
     <col min="6" max="6" width="14" style="6" customWidth="1"/>
     <col min="7" max="16382" width="9.14285714285714" style="6"/>
     <col min="16383" max="16384" width="9.14285714285714" style="7"/>
@@ -1097,11 +1098,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:4">
+    <row r="3" s="2" customFormat="1" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1112,26 +1113,25 @@
       <c r="B4" s="1">
         <v>1040</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1">
         <v>1000</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:5">
       <c r="A5" s="5">
         <v>44169</v>
       </c>
-      <c r="B5" s="1"/>
       <c r="C5" s="1">
         <v>1000</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1">
         <v>0</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:5">
@@ -1141,11 +1141,11 @@
       <c r="B6" s="1">
         <v>1040</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1">
         <v>1000</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:5">
@@ -1155,26 +1155,25 @@
       <c r="B7" s="1">
         <v>1040</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1">
         <v>2000</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8" s="6" customFormat="1" spans="1:5">
       <c r="A8" s="5">
         <v>44172</v>
       </c>
-      <c r="B8" s="6"/>
       <c r="C8" s="6">
         <v>2000</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="6">
         <v>0</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="9" s="6" customFormat="1" spans="1:5">
@@ -1184,11 +1183,11 @@
       <c r="B9" s="6">
         <v>3120</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="6">
         <v>3000</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="10" s="6" customFormat="1"/>
@@ -1265,19 +1264,19 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D1" sqref="D$1:D$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="17" style="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.8571428571429" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.2857142857143" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.2857142857143" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.14285714285714" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9.14285714285714" style="1"/>
   </cols>
@@ -1312,11 +1311,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:4">
+    <row r="3" s="2" customFormat="1" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1327,26 +1326,25 @@
       <c r="B4" s="1">
         <v>3120</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1">
         <v>3000</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:5">
       <c r="A5" s="5">
         <v>44170</v>
       </c>
-      <c r="B5" s="1"/>
       <c r="C5" s="1">
         <v>3000</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1">
         <v>0</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:5">
@@ -1356,11 +1354,11 @@
       <c r="B6" s="1">
         <v>1040</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1">
         <v>1000</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:5">
@@ -1370,12 +1368,11 @@
       <c r="B7" s="1">
         <v>2080</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1">
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1">
         <v>3000</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1385,12 +1382,29 @@
       <c r="C8" s="1">
         <v>3000</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="1">
         <v>0</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>12</v>
-      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="5">
+        <v>44174</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3120</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1405,19 +1419,19 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="17" style="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.8571428571429" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.2857142857143" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.2857142857143" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.14285714285714" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9.14285714285714" style="1"/>
   </cols>
@@ -1452,11 +1466,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:4">
+    <row r="3" s="2" customFormat="1" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1467,11 +1481,11 @@
       <c r="B4" s="1">
         <v>2080</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1">
         <v>2000</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:5">
@@ -1481,11 +1495,11 @@
       <c r="C5" s="1">
         <v>2000</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1">
         <v>0</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:5">
@@ -1495,11 +1509,11 @@
       <c r="B6" s="1">
         <v>1040</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1">
         <v>1000</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1509,11 +1523,39 @@
       <c r="C7" s="1">
         <v>1000</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1">
         <v>0</v>
       </c>
-      <c r="E7" s="1" t="s">
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="5">
+        <v>44174</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2080</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="5">
+        <v>44174</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
